--- a/src/FrontEnd/Dashboard/Dados/crescimento_medio_anual_setor.xlsx
+++ b/src/FrontEnd/Dashboard/Dados/crescimento_medio_anual_setor.xlsx
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +82,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -149,10 +143,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -477,7 +471,7 @@
     <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -499,7 +493,7 @@
         <v>0.001398840806365439</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -510,7 +504,7 @@
         <v>-0.0002369134531620281</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -521,7 +515,7 @@
         <v>0.0004867681107020491</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -532,7 +526,7 @@
         <v>0.00189618281681834</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -543,7 +537,7 @@
         <v>-0.0000175841418253759</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -554,7 +548,7 @@
         <v>0.0007563102133481597</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -565,7 +559,7 @@
         <v>-0.0002575744364731216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -576,7 +570,7 @@
         <v>0.0003685714522488728</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -587,7 +581,7 @@
         <v>0.0007605749280936429</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -598,7 +592,7 @@
         <v>0.00098350101899</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -609,7 +603,7 @@
         <v>0.001015920137913</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -620,7 +614,7 @@
         <v>-0.000348654418143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -631,7 +625,7 @@
         <v>0.001354652739079237</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -642,7 +636,7 @@
         <v>0.0008895205974675827</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -653,7 +647,7 @@
         <v>-0.0003259212126972806</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -664,7 +658,7 @@
         <v>0.000332870716917238</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -749,7 +743,7 @@
         <v>2017</v>
       </c>
       <c r="C25" s="6">
-        <v>0.001097730548939721</v>
+        <v>0.00109773054894</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
@@ -760,7 +754,7 @@
         <v>2018</v>
       </c>
       <c r="C26" s="6">
-        <v>-0.007055672497561056</v>
+        <v>0.0010977342894</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
